--- a/Record.xlsx
+++ b/Record.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>rsme+kappa</t>
   </si>
@@ -52,6 +52,21 @@
   </si>
   <si>
     <t>Optimal score</t>
+  </si>
+  <si>
+    <t>xgboost</t>
+  </si>
+  <si>
+    <t>h2o gbm</t>
+  </si>
+  <si>
+    <t>h2o glm</t>
+  </si>
+  <si>
+    <t>h2o rf</t>
+  </si>
+  <si>
+    <t>h2o dl</t>
   </si>
 </sst>
 </file>
@@ -108,8 +123,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -123,15 +146,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -461,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -475,7 +506,7 @@
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -489,7 +520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -502,8 +533,11 @@
       <c r="D2">
         <v>0.65731600000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -516,8 +550,11 @@
       <c r="D3">
         <v>0.65761970000000003</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -530,8 +567,11 @@
       <c r="D4">
         <v>0.65988639999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -544,8 +584,11 @@
       <c r="D5">
         <v>0.66038980000000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -558,21 +601,95 @@
       <c r="D6">
         <v>0.6597018</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="D7">
+        <v>0.6360941</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>0.61252810000000002</v>
+      </c>
+      <c r="D10">
+        <v>0.65380289999999996</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>0.56330639999999998</v>
+      </c>
+      <c r="D11">
+        <v>0.62301240000000002</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>0.55952380000000002</v>
+      </c>
+      <c r="G11">
+        <v>0.62146769999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Record.xlsx
+++ b/Record.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="38320" yWindow="2200" windowWidth="29680" windowHeight="16120" tabRatio="500"/>
+    <workbookView xWindow="38320" yWindow="2200" windowWidth="29680" windowHeight="16120" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Plan" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
   <si>
     <t>rsme+kappa</t>
   </si>
@@ -67,13 +68,88 @@
   </si>
   <si>
     <t>h2o dl</t>
+  </si>
+  <si>
+    <t>12 Days to go</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Day 1 Meta Features</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>Medical</t>
+  </si>
+  <si>
+    <t>Employ</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>XGB tree booster (multi:softprob)</t>
+  </si>
+  <si>
+    <t>XGB linear booster (reg:linear)</t>
+  </si>
+  <si>
+    <t>correlation distance</t>
+  </si>
+  <si>
+    <t>tsne</t>
+  </si>
+  <si>
+    <t>kmeans</t>
+  </si>
+  <si>
+    <t>Missing value: NaN/Median</t>
+  </si>
+  <si>
+    <t>Day 2 Tune &amp; Feat Selection</t>
+  </si>
+  <si>
+    <t>Day 3 Nerual Networks</t>
+  </si>
+  <si>
+    <t>Day 4 Logistics Regression</t>
+  </si>
+  <si>
+    <t>Main Stack Strategy</t>
+  </si>
+  <si>
+    <t>meta feature + multi objectives + multi models + optimal cutoff points</t>
+  </si>
+  <si>
+    <t>rmse</t>
+  </si>
+  <si>
+    <t>kappa</t>
+  </si>
+  <si>
+    <t>train a + train b to avoid overfit and baised results</t>
+  </si>
+  <si>
+    <t>gbm</t>
+  </si>
+  <si>
+    <t>glm</t>
+  </si>
+  <si>
+    <t>nnets</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -105,16 +181,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -122,8 +237,200 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -141,12 +448,50 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -155,6 +500,8 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -163,6 +510,8 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -494,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -701,4 +1050,219 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="16"/>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="16"/>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="16"/>
+      <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="16"/>
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="16"/>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="17"/>
+      <c r="B8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="7" customHeight="1"/>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" ht="6" customHeight="1"/>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" ht="6" customHeight="1"/>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" ht="5" customHeight="1"/>
+    <row r="16" spans="1:5">
+      <c r="A16" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" ht="16" customHeight="1" thickBot="1">
+      <c r="A17" s="19"/>
+      <c r="B17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A16:A17"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Record.xlsx
+++ b/Record.xlsx
@@ -1057,7 +1057,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
